--- a/verbos.xlsx
+++ b/verbos.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n320\Documents\GitHub\conjugador\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCFE5E4-643A-4540-9C6F-DB42AE076A0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -49,24 +58,25 @@
     <t>hablar</t>
   </si>
   <si>
-    <t>kay</t>
-  </si>
-  <si>
-    <t>estar</t>
+    <t>puñuy</t>
+  </si>
+  <si>
+    <t>dormir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -77,36 +87,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -296,20 +313,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -317,7 +339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -325,7 +347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -333,7 +355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -341,7 +363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -349,7 +371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -357,7 +379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -366,6 +388,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/verbos.xlsx
+++ b/verbos.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n320\Documents\GitHub\conjugador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eddfadd97cee73de/Documents/GitHub/conjugador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCFE5E4-643A-4540-9C6F-DB42AE076A0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{BFCFE5E4-643A-4540-9C6F-DB42AE076A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFD504B1-2410-4DD0-87E6-7A038AD10850}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11415" yWindow="0" windowWidth="11730" windowHeight="14745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet name="tiempo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>quechua</t>
   </si>
@@ -62,13 +63,99 @@
   </si>
   <si>
     <t>dormir</t>
+  </si>
+  <si>
+    <t>presentesimple</t>
+  </si>
+  <si>
+    <t>tiempo</t>
+  </si>
+  <si>
+    <t>definicion</t>
+  </si>
+  <si>
+    <t>presenteprogresivo</t>
+  </si>
+  <si>
+    <t>presentehabitual</t>
+  </si>
+  <si>
+    <t>pasadoexperimentadosimple</t>
+  </si>
+  <si>
+    <t>pasadoexperimentadoprogresivo</t>
+  </si>
+  <si>
+    <t>pasadoexperimentadohabitual</t>
+  </si>
+  <si>
+    <t>pasadonoexperimentadosimple</t>
+  </si>
+  <si>
+    <t>pasadonoexperimentadoprogresivo</t>
+  </si>
+  <si>
+    <t>pasadonoexperimentadohabitual</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El presente simple es equivalente a las formas castellanas </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yo como; tú bailas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, etc. En quechua, el presente simple es el tiempo no marcado, es decir que no hay una marca explícita que indique tal tiempo; por el contrario, para conjugar un verbo en presente simple solo es necesario añadir las marcas personales a la raíz verbal.</t>
+    </r>
+  </si>
+  <si>
+    <t>Llamamos presente progresivo a la forma del presente equivalente a las perífrasis verbales castellanas estoy comiendo o estoy bailando. Es decir que el presente progresivo se emplea cuando el evento descrito por una oración está ocurriendo mientras dicha oración es pronunciada. En otras palabras, el presente progresivo se emplea cuando el evento referido por la oración es simultáneo al acto de habla. Para conjugar verbos en presente progresivo solo es necesario anteponer el sufijo -chka a las marcas personales del presente simple.</t>
+  </si>
+  <si>
+    <t>Llamamos presente habitual a la forma del presente equivalente a las perífrasis verbales castellanas suelo caminar o suelo hablar. Es decir que el presente habitual se emplea cuando el evento descrito por una oración es cotidiano, natural y se da con cierta regularidad. Para conjugar verbos en presente habitual es necesario hacer uso de una perífrasis verbal, en la que añadiremos el sufijo –q al verbo principal y emplearemos el verbo ser, kay, conjugado en presente simple, a manera de auxiliar. Como puedes apreciar, en el caso de la tercera persona no se debe incluir el verbo
+ser, sino que es suficiente con el sufijo –mi, tal como ocurría con el presente simple.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sufijo –sqa se emplea cuando se quiere hablar de hechos de los cuales no hemos sido testigos directos; es decir hechos sobre los cuales no estamos seguros porque no nos constan. Este tiempo se usa, por ejemplo, para contar mitos, cuentos, chistes y leyendas. </t>
+  </si>
+  <si>
+    <t>El sufijo –sqa se emplea cuando se quiere hablar de hechos de los cuales no hemos sido testigos directos; es decir hechos sobre los cuales no estamos seguros porque no nos constan. Este tiempo se usa, por ejemplo, para contar mitos, cuentos, chistes y leyendas. Se conjuga agregando dicho sufijo después de la marca de progresivo y antes de la marca de persona.</t>
+  </si>
+  <si>
+    <t>El sufijo –sqa se emplea cuando se quiere hablar de hechos de los cuales no hemos sido testigos directos; es decir hechos sobre los cuales no estamos seguros porque no nos constan. Este tiempo se usa, por ejemplo, para contar mitos, cuentos, chistes y leyendas. Se conjuga agregando dicho sufijo al verbo kay, antes de la marca de persona.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta forma de pasado se emplea cuando narramos hechos de los cuales hemos sido testigos directos; es decir, hechos que nos constan. Por este valor, las distintas gramáticas quechuas llaman a este tiempo pasado experimentado, ya que lo que se está indicando es que el hablante ha experimentado lo que está diciendo. Se conjuga agregando el sufijo -rqa en el verbo kay, antes de la marca de persona.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta forma de pasado se emplea cuando narramos hechos de los cuales hemos sido testigos directos; es decir, hechos que nos constan. Por este valor, las distintas gramáticas quechuas llaman a este tiempo pasado experimentado, ya que lo que se está indicando es que el hablante ha experimentado lo que está diciendo. Se conjuga agregando el sufijo -rqa después de la marca de progresivo y antes de la marca de persona.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta forma de pasado se emplea cuando narramos hechos de los cuales hemos sido testigos directos; es decir, hechos que nos constan. Por este valor, las distintas gramáticas quechuas llaman a este tiempo pasado experimentado, ya que lo que se está indicando es que el hablante ha experimentado lo que está diciendo. Se conjuga agregando el sufijo -rqa antes de la marca de persona.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -79,6 +166,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -102,9 +204,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,7 +435,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -390,4 +500,103 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7147859-3E9C-4387-A1AA-9FC05DF1B3EA}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/verbos.xlsx
+++ b/verbos.xlsx
@@ -5,23 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eddfadd97cee73de/Documents/GitHub/conjugador/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaby-\OneDrive\Documents\GitHub\conjugador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{BFCFE5E4-643A-4540-9C6F-DB42AE076A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFD504B1-2410-4DD0-87E6-7A038AD10850}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5600C649-21C6-49EB-8551-F0999A811200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11415" yWindow="0" windowWidth="11730" windowHeight="14745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
-    <sheet name="tiempo" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>quechua</t>
   </si>
@@ -63,99 +75,13 @@
   </si>
   <si>
     <t>dormir</t>
-  </si>
-  <si>
-    <t>presentesimple</t>
-  </si>
-  <si>
-    <t>tiempo</t>
-  </si>
-  <si>
-    <t>definicion</t>
-  </si>
-  <si>
-    <t>presenteprogresivo</t>
-  </si>
-  <si>
-    <t>presentehabitual</t>
-  </si>
-  <si>
-    <t>pasadoexperimentadosimple</t>
-  </si>
-  <si>
-    <t>pasadoexperimentadoprogresivo</t>
-  </si>
-  <si>
-    <t>pasadoexperimentadohabitual</t>
-  </si>
-  <si>
-    <t>pasadonoexperimentadosimple</t>
-  </si>
-  <si>
-    <t>pasadonoexperimentadoprogresivo</t>
-  </si>
-  <si>
-    <t>pasadonoexperimentadohabitual</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">El presente simple es equivalente a las formas castellanas </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>yo como; tú bailas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, etc. En quechua, el presente simple es el tiempo no marcado, es decir que no hay una marca explícita que indique tal tiempo; por el contrario, para conjugar un verbo en presente simple solo es necesario añadir las marcas personales a la raíz verbal.</t>
-    </r>
-  </si>
-  <si>
-    <t>Llamamos presente progresivo a la forma del presente equivalente a las perífrasis verbales castellanas estoy comiendo o estoy bailando. Es decir que el presente progresivo se emplea cuando el evento descrito por una oración está ocurriendo mientras dicha oración es pronunciada. En otras palabras, el presente progresivo se emplea cuando el evento referido por la oración es simultáneo al acto de habla. Para conjugar verbos en presente progresivo solo es necesario anteponer el sufijo -chka a las marcas personales del presente simple.</t>
-  </si>
-  <si>
-    <t>Llamamos presente habitual a la forma del presente equivalente a las perífrasis verbales castellanas suelo caminar o suelo hablar. Es decir que el presente habitual se emplea cuando el evento descrito por una oración es cotidiano, natural y se da con cierta regularidad. Para conjugar verbos en presente habitual es necesario hacer uso de una perífrasis verbal, en la que añadiremos el sufijo –q al verbo principal y emplearemos el verbo ser, kay, conjugado en presente simple, a manera de auxiliar. Como puedes apreciar, en el caso de la tercera persona no se debe incluir el verbo
-ser, sino que es suficiente con el sufijo –mi, tal como ocurría con el presente simple.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sufijo –sqa se emplea cuando se quiere hablar de hechos de los cuales no hemos sido testigos directos; es decir hechos sobre los cuales no estamos seguros porque no nos constan. Este tiempo se usa, por ejemplo, para contar mitos, cuentos, chistes y leyendas. </t>
-  </si>
-  <si>
-    <t>El sufijo –sqa se emplea cuando se quiere hablar de hechos de los cuales no hemos sido testigos directos; es decir hechos sobre los cuales no estamos seguros porque no nos constan. Este tiempo se usa, por ejemplo, para contar mitos, cuentos, chistes y leyendas. Se conjuga agregando dicho sufijo después de la marca de progresivo y antes de la marca de persona.</t>
-  </si>
-  <si>
-    <t>El sufijo –sqa se emplea cuando se quiere hablar de hechos de los cuales no hemos sido testigos directos; es decir hechos sobre los cuales no estamos seguros porque no nos constan. Este tiempo se usa, por ejemplo, para contar mitos, cuentos, chistes y leyendas. Se conjuga agregando dicho sufijo al verbo kay, antes de la marca de persona.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta forma de pasado se emplea cuando narramos hechos de los cuales hemos sido testigos directos; es decir, hechos que nos constan. Por este valor, las distintas gramáticas quechuas llaman a este tiempo pasado experimentado, ya que lo que se está indicando es que el hablante ha experimentado lo que está diciendo. Se conjuga agregando el sufijo -rqa en el verbo kay, antes de la marca de persona.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta forma de pasado se emplea cuando narramos hechos de los cuales hemos sido testigos directos; es decir, hechos que nos constan. Por este valor, las distintas gramáticas quechuas llaman a este tiempo pasado experimentado, ya que lo que se está indicando es que el hablante ha experimentado lo que está diciendo. Se conjuga agregando el sufijo -rqa después de la marca de progresivo y antes de la marca de persona.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta forma de pasado se emplea cuando narramos hechos de los cuales hemos sido testigos directos; es decir, hechos que nos constan. Por este valor, las distintas gramáticas quechuas llaman a este tiempo pasado experimentado, ya que lo que se está indicando es que el hablante ha experimentado lo que está diciendo. Se conjuga agregando el sufijo -rqa antes de la marca de persona.
-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -166,21 +92,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -204,17 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,7 +338,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -500,103 +403,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7147859-3E9C-4387-A1AA-9FC05DF1B3EA}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>